--- a/模拟/data/归一化+权值.xlsx
+++ b/模拟/data/归一化+权值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>贫困线以下人口比例</t>
   </si>
@@ -93,6 +93,9 @@
     <t>西班牙</t>
   </si>
   <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
     <t>Soc:</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>W(Eco)</t>
+  </si>
+  <si>
+    <t>Indicator</t>
   </si>
   <si>
     <t>阈值1</t>
@@ -150,13 +156,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +177,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,15 +197,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +272,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,8 +302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,48 +326,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,51 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,25 +350,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,25 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,127 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +555,63 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,39 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,30 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +676,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,20 +822,38 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,16 +1203,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.375"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="13" max="13" width="11.5"/>
@@ -1218,16 +1255,16 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1272,15 +1309,15 @@
         <f>0.5645*C2+0.1981*E2+0.2374*F2</f>
         <v>0.32807153</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="12">
         <f>0.15606*B2+0.3993*K2+0.4501*L2</f>
         <v>0.548849686</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="12">
         <f>0.3108*G2+0.112*H2+0.4121*I2</f>
         <v>0.46917741</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="12">
         <f>0.3108*M2+0.4934*N2+0.1958*O2</f>
         <v>0.4646320034744</v>
       </c>
@@ -1326,15 +1363,15 @@
         <f t="shared" ref="M3:M11" si="0">0.5645*C3+0.1981*E3+0.2374*F3</f>
         <v>0.61491931</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="12">
         <f t="shared" ref="N3:N11" si="1">0.15606*B3+0.3993*K3+0.4501*L3</f>
         <v>0.41133478</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="12">
         <f t="shared" ref="O3:O11" si="2">0.3108*G3+0.112*H3+0.4121*I3</f>
         <v>0.08797271</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P11" si="3">0.3108*M3+0.4934*N3+0.1958*O3</f>
         <v>0.411294558618</v>
       </c>
@@ -1380,15 +1417,15 @@
         <f t="shared" si="0"/>
         <v>0.67948738</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="12">
         <f t="shared" si="1"/>
         <v>0.258209172</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="12">
         <f t="shared" si="2"/>
         <v>0.39101134</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="12">
         <f t="shared" si="3"/>
         <v>0.4151451035408</v>
       </c>
@@ -1434,15 +1471,15 @@
         <f t="shared" si="0"/>
         <v>0.81665411</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="12">
         <f t="shared" si="1"/>
         <v>0.75084582</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="12">
         <f t="shared" si="2"/>
         <v>0.72012004</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="12">
         <f t="shared" si="3"/>
         <v>0.765282928808</v>
       </c>
@@ -1488,15 +1525,15 @@
         <f t="shared" si="0"/>
         <v>0.55719757</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="12">
         <f t="shared" si="1"/>
         <v>0.04499973</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="12">
         <f t="shared" si="2"/>
         <v>0.28687592</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="12">
         <f t="shared" si="3"/>
         <v>0.251550176674</v>
       </c>
@@ -1542,15 +1579,15 @@
         <f t="shared" si="0"/>
         <v>0.31461753</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="12">
         <f t="shared" si="1"/>
         <v>0.470023098</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="12">
         <f t="shared" si="2"/>
         <v>0.51541287</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="12">
         <f t="shared" si="3"/>
         <v>0.4306103648232</v>
       </c>
@@ -1596,15 +1633,15 @@
         <f t="shared" si="0"/>
         <v>0.77582772</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="12">
         <f t="shared" si="1"/>
         <v>0.726772554</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="12">
         <f t="shared" si="2"/>
         <v>0.32612236</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="12">
         <f t="shared" si="3"/>
         <v>0.6635715916076</v>
       </c>
@@ -1650,15 +1687,15 @@
         <f t="shared" si="0"/>
         <v>0.48534983</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="12">
         <f t="shared" si="1"/>
         <v>0.16272966</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="12">
         <f t="shared" si="2"/>
         <v>0.37134031</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="12">
         <f t="shared" si="3"/>
         <v>0.303845974106</v>
       </c>
@@ -1704,15 +1741,15 @@
         <f t="shared" si="0"/>
         <v>0.76754812</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="12">
         <f t="shared" si="1"/>
         <v>0.063791762</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="12">
         <f t="shared" si="2"/>
         <v>0.30607218</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="12">
         <f t="shared" si="3"/>
         <v>0.3299577439108</v>
       </c>
@@ -1758,160 +1795,415 @@
         <f t="shared" si="0"/>
         <v>0.6646418</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="12">
         <f t="shared" si="1"/>
         <v>0.232560964</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="12">
         <f t="shared" si="2"/>
         <v>0.44165736</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="12">
         <f t="shared" si="3"/>
         <v>0.4077927621656</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" t="s">
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B12" s="4">
+        <v>0.0369</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.03478</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.4949</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.0362</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.378</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.8696</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="4">
+        <f>0.5645*C12+0.1981*E12+0.2374*F12</f>
+        <v>0.355073</v>
+      </c>
+      <c r="N12" s="12">
+        <f>0.15606*B12+0.3993*K12+0.4501*L12</f>
+        <v>0.018245614</v>
+      </c>
+      <c r="O12" s="12">
+        <f>0.3108*G12+0.112*H12+0.4121*I12</f>
+        <v>0.4644122</v>
+      </c>
+      <c r="P12" s="12">
+        <f>0.3108*M12+0.4934*N12+0.1958*O12</f>
+        <v>0.2102909831076</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s">
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="N13" t="s">
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="2:16">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" ht="14.25" spans="2:16">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K17" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="L17" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="N17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="O17" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:16">
-      <c r="B15">
+      <c r="P17" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="2:16">
+      <c r="B18" s="5">
         <v>0.5645</v>
       </c>
-      <c r="C15">
+      <c r="C18" s="5">
         <v>0.1981</v>
       </c>
-      <c r="D15">
+      <c r="D18" s="5">
         <v>0.2374</v>
       </c>
-      <c r="F15">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>0.1506</v>
       </c>
-      <c r="G15">
+      <c r="G18" s="5">
         <v>0.3993</v>
       </c>
-      <c r="H15">
+      <c r="H18" s="5">
         <v>0.4501</v>
       </c>
-      <c r="J15">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
         <v>0.4759</v>
       </c>
-      <c r="K15">
+      <c r="K18" s="5">
         <v>0.112</v>
       </c>
-      <c r="L15">
+      <c r="L18" s="5">
         <v>0.4121</v>
       </c>
-      <c r="N15" s="9">
+      <c r="M18" s="5"/>
+      <c r="N18" s="15">
         <v>0.3108</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O18" s="15">
         <v>0.4934</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P18" s="15">
         <v>0.1958</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="5">
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6">
         <v>0.5478</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D22" s="6">
         <v>0.7921</v>
       </c>
-      <c r="F18" s="5">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
         <v>0.3063</v>
       </c>
-      <c r="G18" s="5">
+      <c r="D23" s="6">
         <v>0.4073</v>
       </c>
-      <c r="J18" s="5">
+    </row>
+    <row r="24" ht="14.25" spans="2:15">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.3877</v>
       </c>
-      <c r="K18" s="5">
+      <c r="D24" s="6">
         <v>0.5131</v>
       </c>
-      <c r="N18" s="5">
-        <v>0.3973</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0.5477</v>
-      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" ht="14.25" spans="6:15">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="39" ht="14.25" spans="6:14">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="4:5">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模拟/data/归一化+权值.xlsx
+++ b/模拟/data/归一化+权值.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>贫困线以下人口比例</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>巴基斯坦16</t>
   </si>
   <si>
     <t>Soc:</t>
@@ -155,14 +158,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +181,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -194,42 +190,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,15 +233,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,8 +247,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,9 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +308,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,15 +324,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,19 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +412,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,55 +496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,73 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,23 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,28 +582,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,17 +618,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,149 +660,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,37 +818,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1255,16 +1254,16 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1309,15 +1308,15 @@
         <f>0.5645*C2+0.1981*E2+0.2374*F2</f>
         <v>0.32807153</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="13">
         <f>0.15606*B2+0.3993*K2+0.4501*L2</f>
         <v>0.548849686</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="13">
         <f>0.3108*G2+0.112*H2+0.4121*I2</f>
         <v>0.46917741</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="13">
         <f>0.3108*M2+0.4934*N2+0.1958*O2</f>
         <v>0.4646320034744</v>
       </c>
@@ -1360,19 +1359,19 @@
         <v>0.49</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M11" si="0">0.5645*C3+0.1981*E3+0.2374*F3</f>
+        <f t="shared" ref="M3:M12" si="0">0.5645*C3+0.1981*E3+0.2374*F3</f>
         <v>0.61491931</v>
       </c>
-      <c r="N3" s="12">
-        <f t="shared" ref="N3:N11" si="1">0.15606*B3+0.3993*K3+0.4501*L3</f>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N12" si="1">0.15606*B3+0.3993*K3+0.4501*L3</f>
         <v>0.41133478</v>
       </c>
-      <c r="O3" s="12">
-        <f t="shared" ref="O3:O11" si="2">0.3108*G3+0.112*H3+0.4121*I3</f>
+      <c r="O3" s="13">
+        <f t="shared" ref="O3:O12" si="2">0.3108*G3+0.112*H3+0.4121*I3</f>
         <v>0.08797271</v>
       </c>
-      <c r="P3" s="12">
-        <f t="shared" ref="P3:P11" si="3">0.3108*M3+0.4934*N3+0.1958*O3</f>
+      <c r="P3" s="13">
+        <f t="shared" ref="P3:P12" si="3">0.3108*M3+0.4934*N3+0.1958*O3</f>
         <v>0.411294558618</v>
       </c>
     </row>
@@ -1417,15 +1416,15 @@
         <f t="shared" si="0"/>
         <v>0.67948738</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="13">
         <f t="shared" si="1"/>
         <v>0.258209172</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="13">
         <f t="shared" si="2"/>
         <v>0.39101134</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="13">
         <f t="shared" si="3"/>
         <v>0.4151451035408</v>
       </c>
@@ -1471,15 +1470,15 @@
         <f t="shared" si="0"/>
         <v>0.81665411</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <f t="shared" si="1"/>
         <v>0.75084582</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="13">
         <f t="shared" si="2"/>
         <v>0.72012004</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="13">
         <f t="shared" si="3"/>
         <v>0.765282928808</v>
       </c>
@@ -1525,15 +1524,15 @@
         <f t="shared" si="0"/>
         <v>0.55719757</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <f t="shared" si="1"/>
         <v>0.04499973</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="13">
         <f t="shared" si="2"/>
         <v>0.28687592</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="13">
         <f t="shared" si="3"/>
         <v>0.251550176674</v>
       </c>
@@ -1579,15 +1578,15 @@
         <f t="shared" si="0"/>
         <v>0.31461753</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <f t="shared" si="1"/>
         <v>0.470023098</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="13">
         <f t="shared" si="2"/>
         <v>0.51541287</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <f t="shared" si="3"/>
         <v>0.4306103648232</v>
       </c>
@@ -1633,15 +1632,15 @@
         <f t="shared" si="0"/>
         <v>0.77582772</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <f t="shared" si="1"/>
         <v>0.726772554</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="13">
         <f t="shared" si="2"/>
         <v>0.32612236</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="13">
         <f t="shared" si="3"/>
         <v>0.6635715916076</v>
       </c>
@@ -1687,15 +1686,15 @@
         <f t="shared" si="0"/>
         <v>0.48534983</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <f t="shared" si="1"/>
         <v>0.16272966</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="13">
         <f t="shared" si="2"/>
         <v>0.37134031</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <f t="shared" si="3"/>
         <v>0.303845974106</v>
       </c>
@@ -1741,15 +1740,15 @@
         <f t="shared" si="0"/>
         <v>0.76754812</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="13">
         <f t="shared" si="1"/>
         <v>0.063791762</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="13">
         <f t="shared" si="2"/>
         <v>0.30607218</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="13">
         <f t="shared" si="3"/>
         <v>0.3299577439108</v>
       </c>
@@ -1795,15 +1794,15 @@
         <f t="shared" si="0"/>
         <v>0.6646418</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <f t="shared" si="1"/>
         <v>0.232560964</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="13">
         <f t="shared" si="2"/>
         <v>0.44165736</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="13">
         <f t="shared" si="3"/>
         <v>0.4077927621656</v>
       </c>
@@ -1846,364 +1845,1522 @@
         <v>0.01</v>
       </c>
       <c r="M12" s="4">
-        <f>0.5645*C12+0.1981*E12+0.2374*F12</f>
+        <f t="shared" si="0"/>
         <v>0.355073</v>
       </c>
-      <c r="N12" s="12">
-        <f>0.15606*B12+0.3993*K12+0.4501*L12</f>
+      <c r="N12" s="13">
+        <f t="shared" si="1"/>
         <v>0.018245614</v>
       </c>
-      <c r="O12" s="12">
-        <f>0.3108*G12+0.112*H12+0.4121*I12</f>
+      <c r="O12" s="13">
+        <f t="shared" si="2"/>
         <v>0.4644122</v>
       </c>
-      <c r="P12" s="12">
-        <f>0.3108*M12+0.4934*N12+0.1958*O12</f>
+      <c r="P12" s="13">
+        <f t="shared" si="3"/>
         <v>0.2102909831076</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" t="s">
+    <row r="13" spans="13:16">
+      <c r="M13" s="4"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B14" s="5">
+        <v>0.202006986498153</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.0475732122041568</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.686566810962666</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.914092960588194</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.0203249769885802</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.00421944866706967</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.0172283372238377</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.00768775793557206</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.204386161804732</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.143870472886433</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.0303450949303579</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ref="M13:M33" si="4">0.5645*C14+0.1981*E14+0.2374*F14</f>
+        <v>0.212762043318857</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" ref="N13:N33" si="5">0.15606*B14+0.3993*K14+0.4501*L14</f>
+        <v>0.102631017364609</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" ref="O13:O33" si="6">0.3108*G14+0.112*H14+0.4121*I14</f>
+        <v>0.00640910346004432</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" ref="P13:P33" si="7">0.3108*M14+0.4934*N14+0.1958*O14</f>
+        <v>0.118019489488675</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="5">
+        <v>0.189115799618152</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.0436098653308673</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.666862084249422</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.924442198397729</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.0201385711820442</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.00422892557677152</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.0167616020125369</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.00768899764179737</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.191648530008886</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.150093604738184</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.0310255027103018</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.212530665280482</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.103410366830273</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00636028542284942</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="7"/>
+        <v>0.118322549649024</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="5">
+        <v>0.177048115724996</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.0391179973179145</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.647713676490313</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.934908608888661</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.0199538749530752</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.00423842375225503</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.0163086886633812</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.0076895445021835</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.179704725262455</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.156270633961465</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.031697400230729</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.212024554820667</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.104295992924707</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00631273652184938</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="7"/>
+        <v>0.118592908358292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="5">
+        <v>0.165751228100048</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.0351842168329755</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.629210577631626</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.945493518674361</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.0197708726226795</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.00424794324346686</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.015870291839618</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.00769568353114022</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.16850527515216</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.162720582197599</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.0323710321675847</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21185736161223</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.105411666707425</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="6"/>
+        <v>0.0062691246292896</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="7"/>
+        <v>0.119082878944939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.155175808678108</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.0313264369259922</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.611600102240914</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.956198269387941</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.0195895486556599</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.00425748410008684</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.0154467830435798</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.00770142096614974</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.158003790454793</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.169831035629947</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.033105872453771</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.211757209661327</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.106931222420786</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00622702133933824</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="7"/>
+        <v>0.119793256683399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="5">
+        <v>0.145275694452544</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.0280480926430352</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.594796445413765</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.9670242178523</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.0194098876592963</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.00426704637161016</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.0150380837309896</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.00770832060664408</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.148156772988494</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.176063801297652</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.0338601583999652</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.212008553183851</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="5"/>
+        <v>0.108214458030241</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="6"/>
+        <v>0.0061870623121653</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="7"/>
+        <v>0.120496698722384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="5">
+        <v>0.13600768543697</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.0257558674133601</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.578765839883329</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.977972736252106</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.0192318743820395</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.00427663010740973</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.0146454306104651</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.00771498057227463</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.138923435439002</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.183143133859187</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.0345851351150169</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21284123318468</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.109921182054536</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00614880835958941</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="7"/>
+        <v>0.121590103176314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="5">
+        <v>0.127331354484417</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.0242741638068252</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.563585437315404</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.989045212307716</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.0190554937122164</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.00428623535678186</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.0142664183344282</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.00772106210033761</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.130265532414596</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.190270237536894</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.03526588690859</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.214156396234392</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="5"/>
+        <v>0.111719412726876</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00611185049389289</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="7"/>
+        <v>0.122878866515794</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="5">
+        <v>0.119208868782105</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.0239855500314383</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.548942443009975</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.0188807306767471</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.00429586216898214</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.0138988149773815</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.00772613116935406</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.122147202029918</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.196730896727208</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.0359066149277287</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.216122128455407</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.11331995050428</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00607575989447719</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="7"/>
+        <v>0.124272454890091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.111604822592849</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.0244926081853197</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.534701802706409</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.0187075704398737</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.00430551059325179</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.0135391793405427</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.00773156514023588</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.114534817362524</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.202569537802397</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0365029038211489</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.216367254543039</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="5"/>
+        <v>0.114733022068236</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00604071877281465</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" si="7"/>
+        <v>0.125038988536161</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="5">
+        <v>0.104486080695148</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.0231224043669855</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.520857824003843</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.0185359983019011</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.0043151806788398</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.013184486551168</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.00773766602394847</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.10739684716686</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.210541974536138</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.0372868976801867</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.215553043262035</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="5"/>
+        <v>0.117158340831417</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00600651281718339</v>
+      </c>
+      <c r="P24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.125975886421666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="5">
+        <v>0.097821631925429</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.0211654169980421</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.507043496613369</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.018365999697949</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.00432487247501961</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.012827017425875</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.00774289163669433</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.100703725268749</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.218397212220184</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.0380542476777269</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.214407966223688</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="5"/>
+        <v>0.119600267597547</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00597164196041583</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" si="7"/>
+        <v>0.126818015430801</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:16">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5">
+        <v>0.0915824522164132</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.0188848483553086</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.493107020507259</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.0181975601967156</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.00433458603110233</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.0124809930565299</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.00774866103306008</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.0944277280993865</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.226124866630522</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.0388929108073376</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.213080597687272</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.122089715892844</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00593828377252201</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="7"/>
+        <v>0.127627231545393</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:16">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5">
+        <v>0.0857413765374078</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.0164176967869121</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.478693428377626</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.0180306654992523</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.00434432139644901</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.0121544520490699</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.00775340202078084</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.0885428598615977</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.235715035874443</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.0397107601543041</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.211648269825734</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="5"/>
+        <v>0.125375626192545</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00590669069227597</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="7"/>
+        <v>0.128797146262788</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:16">
+      <c r="A28" s="6">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.080272979165559</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.015584594996597</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.466139126927445</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.0178653014377501</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.00435407862047832</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.0118375944203586</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.00775999149893069</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.0830247448526877</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.244281365740829</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.0405047914659113</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="4"/>
+        <v>0.211138726436901</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.128300157107697</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00587695070703416</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="7"/>
+        <v>0.130075920641964</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:16">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
+        <v>0.0751534617459345</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.014948622443582</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.453933936326112</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.0177014539743367</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.00436385775267495</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.0115287679843795</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.00776632201552868</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.0778505264978856</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.253151955090017</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.0413138184413139</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21074082254291</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="5"/>
+        <v>0.13140737458795</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00584801030638125</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="7"/>
+        <v>0.13147968668602</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:16">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5">
+        <v>0.0703605486294417</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.014349330991742</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.442017164362428</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.017539109199885</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.00437365884259573</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.0112273326428559</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.00777197508711344</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.0729987726761656</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.26232193477171</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.0421364626804652</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="4"/>
+        <v>0.210363981868891</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.134691237625932</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00581962535767806</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="7"/>
+        <v>0.132977264854519</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:16">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5">
+        <v>0.0658733890091153</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.0137550539525065</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.430334429285011</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.0173782533328321</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.00438348193987458</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.0109328063797452</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.00777759515855944</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.0684493869462941</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.271832937092117</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.0429719783276112</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.209990325297404</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="5"/>
+        <v>0.138164780314903</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00579200746628683</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" si="7"/>
+        <v>0.134569570771705</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:16">
+      <c r="B32" s="5">
+        <v>0.0616724654061458</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.0130583165449931</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.418875581992182</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.0172188727180095</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.00439332709422774</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.0106449033338507</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.00778311353865799</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.0641835253053957</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.281813749426022</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.0438303788095982</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="4"/>
+        <v>0.209559180072904</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="5"/>
+        <v>0.141880888599294</v>
+      </c>
+      <c r="O32" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00576509632355822</v>
+      </c>
+      <c r="P32" s="13">
+        <f t="shared" si="7"/>
+        <v>0.136263829461703</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:16">
+      <c r="A33" s="6">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0577395080865981</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.012212755322465</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.40763615216235</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.0170609538254841</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.00440319435545627</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.0103635410989142</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.00778872694934683</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.0601835181352402</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.292147583379325</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.0447186000710667</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.209044370817701</v>
+      </c>
+      <c r="N33" s="13">
+        <f t="shared" si="5"/>
+        <v>0.145793199567346</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" si="6"/>
+        <v>0.00573896378458003</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="7"/>
+        <v>0.138029044225691</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="39" ht="14.25" spans="6:14">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="N16" t="s">
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:16">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="41" ht="14.25" spans="2:16">
+      <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F41" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G41" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="H41" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J41" t="s">
         <v>36</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K41" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="L41" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="N41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="O41" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:16">
-      <c r="B18" s="5">
+      <c r="P41" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="2:16">
+      <c r="B42" s="10">
         <v>0.5645</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C42" s="10">
         <v>0.1981</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D42" s="10">
         <v>0.2374</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
         <v>0.1506</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G42" s="10">
         <v>0.3993</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H42" s="10">
         <v>0.4501</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10">
         <v>0.4759</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K42" s="10">
         <v>0.112</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L42" s="10">
         <v>0.4121</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="15">
+      <c r="M42" s="10"/>
+      <c r="N42" s="16">
         <v>0.3108</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O42" s="16">
         <v>0.4934</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P42" s="16">
         <v>0.1958</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C45" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="6" t="s">
+      <c r="D45" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C46" s="11">
         <v>0.5478</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D46" s="11">
         <v>0.7921</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="6" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C47" s="11">
         <v>0.3063</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D47" s="11">
         <v>0.4073</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="2:15">
-      <c r="B24" s="6" t="s">
+    <row r="48" ht="14.25" spans="2:15">
+      <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C48" s="11">
         <v>0.3877</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D48" s="11">
         <v>0.5131</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" ht="14.25" spans="6:15">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="39" ht="14.25" spans="6:14">
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="4:5">
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="51" spans="13:16">
+      <c r="M51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.202006986498153</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.0475732122041568</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.686566810962666</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.914092960588194</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.0203249769885802</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.00421944866706967</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.0172283372238377</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.00768775793557206</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.204386161804732</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.143870472886433</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.0303450949303579</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.212762043318857</v>
+      </c>
+      <c r="N52" s="13">
+        <v>0.102631017364609</v>
+      </c>
+      <c r="O52" s="13">
+        <v>0.00640910346004432</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.118019489488675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.155175808678108</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.0313264369259922</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.611600102240914</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.956198269387941</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.0195895486556599</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.00425748410008684</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.0154467830435798</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.00770142096614974</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.158003790454793</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.169831035629947</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.033105872453771</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.211757209661327</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0.106931222420786</v>
+      </c>
+      <c r="O53" s="13">
+        <v>0.00622702133933824</v>
+      </c>
+      <c r="P53" s="13">
+        <v>0.119793256683399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.111604822592849</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.0244926081853197</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.534701802706409</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.0187075704398737</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.00430551059325179</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.0135391793405427</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.00773156514023588</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.114534817362524</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.202569537802397</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.0365029038211489</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.216367254543039</v>
+      </c>
+      <c r="N54" s="13">
+        <v>0.114733022068236</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0.00604071877281465</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0.125038988536161</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:16">
+      <c r="A55" s="6">
+        <v>30</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.080272979165559</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.015584594996597</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.466139126927445</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.0178653014377501</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.00435407862047832</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.0118375944203586</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.00775999149893069</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.0830247448526877</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.244281365740829</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.0405047914659113</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.211138726436901</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0.128300157107697</v>
+      </c>
+      <c r="O55" s="13">
+        <v>0.00587695070703416</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0.130075920641964</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:16">
+      <c r="A56" s="6">
+        <v>35</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0577395080865981</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.012212755322465</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.40763615216235</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.0170609538254841</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.00440319435545627</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.0103635410989142</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.00778872694934683</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.0601835181352402</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.292147583379325</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.0447186000710667</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.209044370817701</v>
+      </c>
+      <c r="N56" s="13">
+        <v>0.145793199567346</v>
+      </c>
+      <c r="O56" s="13">
+        <v>0.00573896378458003</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0.138029044225691</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模拟/data/归一化+权值.xlsx
+++ b/模拟/data/归一化+权值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19215" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>贫困线以下人口比例</t>
   </si>
@@ -158,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -193,8 +193,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,21 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -233,59 +257,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +278,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +309,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,25 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +412,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,85 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,39 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,17 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -652,6 +628,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:P56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1861,11 +1861,52 @@
         <v>0.2102909831076</v>
       </c>
     </row>
-    <row r="13" spans="13:16">
-      <c r="M13" s="4"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+    <row r="13" spans="2:16">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -2802,7 +2843,7 @@
         <v>0.134569570771705</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:16">
+    <row r="32" spans="2:16">
       <c r="B32" s="5">
         <v>0.0616724654061458</v>
       </c>
